--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/34.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/34.xlsx
@@ -479,13 +479,13 @@
         <v>-0.1498566771665284</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.938618048042419</v>
+        <v>-1.936544779753329</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1297671102078891</v>
+        <v>0.1278004254294351</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1475135428327637</v>
+        <v>-0.1453731123314916</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.213667448670274</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.081750942538472</v>
+        <v>-2.077784721899518</v>
       </c>
       <c r="F3" t="n">
-        <v>0.06770776610381488</v>
+        <v>0.06562573752617906</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.120147861464862</v>
+        <v>-0.1188177576540441</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.3215482013350314</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.292773153165597</v>
+        <v>-2.288885775123553</v>
       </c>
       <c r="F4" t="n">
-        <v>0.05449141078490933</v>
+        <v>0.05218453480127359</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1428954107212195</v>
+        <v>-0.1418689969133107</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.4332066625582479</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.461967176060324</v>
+        <v>-2.458557233744007</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0009397669065600712</v>
+        <v>-0.0008838331589848937</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1686404387082126</v>
+        <v>-0.1670066448944857</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.5061949665798037</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.532653214309532</v>
+        <v>-2.527875936956079</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.0727722210110565</v>
+        <v>-0.07253423317223838</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1721314136935753</v>
+        <v>-0.1709589950765756</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.5014474138537263</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.333196044610495</v>
+        <v>-2.327024421330224</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1227628075956794</v>
+        <v>-0.1227306865376794</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.148084421636309</v>
+        <v>-0.1470331870108547</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.4032881708663071</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.025007633533396</v>
+        <v>-2.018103066111489</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1714627116679391</v>
+        <v>-0.1699588621343031</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1168116515771356</v>
+        <v>-0.1164875209009539</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.2174689911732812</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.670070672657537</v>
+        <v>-1.664180838658811</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.1019104007613214</v>
+        <v>-0.09973054896159471</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.07381031520369258</v>
+        <v>-0.07382637573269259</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.02578123184964869</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.237318258704562</v>
+        <v>-1.2318518386522</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01016143064873941</v>
+        <v>0.01190910821355712</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.01071287690698225</v>
+        <v>-0.01103116739080035</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.2861791312066216</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.9231290499738282</v>
+        <v>-0.9180042811747386</v>
       </c>
       <c r="F11" t="n">
-        <v>0.07446194857235851</v>
+        <v>0.07509414939572198</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.01581282488852634</v>
+        <v>-0.01629756085470803</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.5298413577865739</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.5569008071869265</v>
+        <v>-0.5512372806422916</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1446011988115215</v>
+        <v>0.1448056055442487</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.02044993762525237</v>
+        <v>-0.02086897142734316</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.7542369185455514</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.1109568587325917</v>
+        <v>-0.1050757850224115</v>
       </c>
       <c r="F13" t="n">
-        <v>0.009619752807012286</v>
+        <v>0.008866367992103398</v>
       </c>
       <c r="G13" t="n">
-        <v>0.04897534909745627</v>
+        <v>0.04765400557518389</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.97000443472491</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3447037097667405</v>
+        <v>0.3492590598103756</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.163485008899214</v>
+        <v>-0.1642296334255774</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1179772218738014</v>
+        <v>0.1167814424873471</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>1.185476152068813</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8899177879700486</v>
+        <v>0.893654051034684</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.1839169218833903</v>
+        <v>-0.1872385312902076</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1997588955898703</v>
+        <v>0.1985850169247797</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>1.392992905699606</v>
       </c>
       <c r="E16" t="n">
-        <v>1.588279230524952</v>
+        <v>1.591635881085951</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.5191016221613912</v>
+        <v>-0.5227108610421175</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2650639266000346</v>
+        <v>0.2632753676886714</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>1.584876220578829</v>
       </c>
       <c r="E17" t="n">
-        <v>2.291981528996399</v>
+        <v>2.293864991033672</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.6871487772807097</v>
+        <v>-0.6894381326872545</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3755151046291867</v>
+        <v>0.3736812842270054</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.754093841304879</v>
       </c>
       <c r="E18" t="n">
-        <v>3.054123712354559</v>
+        <v>3.054678530629104</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.964790062199817</v>
+        <v>-0.9670823377025436</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4869196940617023</v>
+        <v>0.4853399220273391</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.899859969643784</v>
       </c>
       <c r="E19" t="n">
-        <v>3.681734144520208</v>
+        <v>3.681585219614935</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.205166539694662</v>
+        <v>-1.206171052781207</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6076364702180336</v>
+        <v>0.6048492384124888</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>2.019180963480113</v>
       </c>
       <c r="E20" t="n">
-        <v>4.33992382390185</v>
+        <v>4.337881216622669</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.464913475211592</v>
+        <v>-1.465750082767682</v>
       </c>
       <c r="G20" t="n">
-        <v>0.7212924538067302</v>
+        <v>0.7176145926657312</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>2.110548481425399</v>
       </c>
       <c r="E21" t="n">
-        <v>4.862061842028345</v>
+        <v>4.860071796480437</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.736556882573246</v>
+        <v>-1.737456272197246</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8687266499785998</v>
+        <v>0.8646049342179645</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>2.172336069490708</v>
       </c>
       <c r="E22" t="n">
-        <v>5.377566861677844</v>
+        <v>5.373450986109572</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.955828364914005</v>
+        <v>-1.956962092256596</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9555484097044855</v>
+        <v>0.951559558320123</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>2.205269487106653</v>
       </c>
       <c r="E23" t="n">
-        <v>5.72344495417366</v>
+        <v>5.718152279844116</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.202685265860348</v>
+        <v>-2.203999309142166</v>
       </c>
       <c r="G23" t="n">
-        <v>1.066313498073183</v>
+        <v>1.061063165138275</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>2.210463298139679</v>
       </c>
       <c r="E24" t="n">
-        <v>6.143732937574547</v>
+        <v>6.137850403816276</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.430359324964287</v>
+        <v>-2.431874124858605</v>
       </c>
       <c r="G24" t="n">
-        <v>1.185951298690333</v>
+        <v>1.180283392001425</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.189108890104749</v>
       </c>
       <c r="E25" t="n">
-        <v>6.431251447828652</v>
+        <v>6.422937933999018</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.554645188678845</v>
+        <v>-2.556094286409071</v>
       </c>
       <c r="G25" t="n">
-        <v>1.259834112234586</v>
+        <v>1.254118023958678</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.143423795197672</v>
       </c>
       <c r="E26" t="n">
-        <v>6.592735686779336</v>
+        <v>6.584055700878883</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.60410212768624</v>
+        <v>-2.606475435858012</v>
       </c>
       <c r="G26" t="n">
-        <v>1.322594279422296</v>
+        <v>1.317545433123934</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.077396221641808</v>
       </c>
       <c r="E27" t="n">
-        <v>6.695692437957853</v>
+        <v>6.687005151816947</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.687123382231491</v>
+        <v>-2.6872022248284</v>
       </c>
       <c r="G27" t="n">
-        <v>1.334343286409838</v>
+        <v>1.329495926748022</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.994529616511607</v>
       </c>
       <c r="E28" t="n">
-        <v>6.877427543929441</v>
+        <v>6.866829054837535</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.715031471465165</v>
+        <v>-2.714791293554211</v>
       </c>
       <c r="G28" t="n">
-        <v>1.373510536496555</v>
+        <v>1.369326038668011</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.900618537531143</v>
       </c>
       <c r="E29" t="n">
-        <v>6.840029872128905</v>
+        <v>6.83007526424509</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.735583108392796</v>
+        <v>-2.734671308360023</v>
       </c>
       <c r="G29" t="n">
-        <v>1.358710028999014</v>
+        <v>1.354865722375651</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.798971445383637</v>
       </c>
       <c r="E30" t="n">
-        <v>6.77488398636065</v>
+        <v>6.764955659342471</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.639641888291095</v>
+        <v>-2.640131004401549</v>
       </c>
       <c r="G30" t="n">
-        <v>1.341669807730018</v>
+        <v>1.337916024088292</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.694965041836108</v>
       </c>
       <c r="E31" t="n">
-        <v>6.796037163101736</v>
+        <v>6.785019640207739</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.541222966579121</v>
+        <v>-2.541370431436303</v>
       </c>
       <c r="G31" t="n">
-        <v>1.303707097318301</v>
+        <v>1.299353233911211</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.591047970875007</v>
       </c>
       <c r="E32" t="n">
-        <v>6.753009545862656</v>
+        <v>6.741483926233022</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.408652789996748</v>
+        <v>-2.409190817718248</v>
       </c>
       <c r="G32" t="n">
-        <v>1.256795752157405</v>
+        <v>1.252398087307588</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.491318637007348</v>
       </c>
       <c r="E33" t="n">
-        <v>6.584465974392429</v>
+        <v>6.573119940677977</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.373467821077984</v>
+        <v>-2.373371457903984</v>
       </c>
       <c r="G33" t="n">
-        <v>1.198538373282057</v>
+        <v>1.194356795549694</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.396186516396319</v>
       </c>
       <c r="E34" t="n">
-        <v>6.288861717810872</v>
+        <v>6.277762432223784</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.337023560680812</v>
+        <v>-2.33768715253813</v>
       </c>
       <c r="G34" t="n">
-        <v>1.148882137710252</v>
+        <v>1.144570615697798</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.306840922116107</v>
       </c>
       <c r="E35" t="n">
-        <v>6.093111610214652</v>
+        <v>6.082587583575382</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.298371707570186</v>
+        <v>-2.298967407191277</v>
       </c>
       <c r="G35" t="n">
-        <v>1.088203999100177</v>
+        <v>1.084784566471269</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.221973417938849</v>
       </c>
       <c r="E36" t="n">
-        <v>5.895486800869705</v>
+        <v>5.885504452072162</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.235713743748839</v>
+        <v>-2.237205182873703</v>
       </c>
       <c r="G36" t="n">
-        <v>1.064898711473093</v>
+        <v>1.061463218315184</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.141403459933663</v>
       </c>
       <c r="E37" t="n">
-        <v>5.590221406070604</v>
+        <v>5.581230429926789</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.190529635479488</v>
+        <v>-2.191854629121988</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9603986894624843</v>
+        <v>0.9571092011136669</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.063199674156076</v>
       </c>
       <c r="E38" t="n">
-        <v>5.282932384617506</v>
+        <v>5.27564528459578</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.144092805948137</v>
+        <v>-2.145581324976818</v>
       </c>
       <c r="G38" t="n">
-        <v>0.8865406967357768</v>
+        <v>0.8840031331537775</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.9852617756998139</v>
       </c>
       <c r="E39" t="n">
-        <v>4.967811665204771</v>
+        <v>4.958917052234956</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.085367481659652</v>
+        <v>-2.087244373480516</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8061898701487984</v>
+        <v>0.803668367095799</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.905748345986809</v>
       </c>
       <c r="E40" t="n">
-        <v>4.676051715246578</v>
+        <v>4.668276959162489</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.104133479772102</v>
+        <v>-2.105764353489647</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7652997633148094</v>
+        <v>0.7629169648304464</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.8246258737774255</v>
       </c>
       <c r="E41" t="n">
-        <v>4.355528817897482</v>
+        <v>4.348651991389302</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.999638567929812</v>
+        <v>-2.00055109798663</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6858162052938307</v>
+        <v>0.6834144261842859</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.7435503100021988</v>
       </c>
       <c r="E42" t="n">
-        <v>3.979436490208401</v>
+        <v>3.973261946831948</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.909452857402473</v>
+        <v>-1.909663104327563</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6059252938554885</v>
+        <v>0.6038301248450345</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.664006201266942</v>
       </c>
       <c r="E43" t="n">
-        <v>3.678275290592846</v>
+        <v>3.673384129488301</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.857123273776214</v>
+        <v>-1.85727803887385</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5656805282776811</v>
+        <v>0.564324143601227</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.5883092655123697</v>
       </c>
       <c r="E44" t="n">
-        <v>3.37849675651938</v>
+        <v>3.373605595414836</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.762696123544784</v>
+        <v>-1.762814387440148</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5164374863156035</v>
+        <v>0.5144489008157859</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.5166786594224517</v>
       </c>
       <c r="E45" t="n">
-        <v>3.096041693044547</v>
+        <v>3.091416260692549</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.679828174049079</v>
+        <v>-1.680292469341989</v>
       </c>
       <c r="G45" t="n">
-        <v>0.421982595170447</v>
+        <v>0.4206291305901746</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.450384075855275</v>
       </c>
       <c r="E46" t="n">
-        <v>2.801655116570808</v>
+        <v>2.797986015718354</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.600930095312555</v>
+        <v>-1.601703920800737</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3840169646625481</v>
+        <v>0.3831058946538211</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.3891323147330077</v>
       </c>
       <c r="E47" t="n">
-        <v>2.472827465680624</v>
+        <v>2.469565718245534</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.479900868864769</v>
+        <v>-1.480883481229951</v>
       </c>
       <c r="G47" t="n">
-        <v>0.3202201633302925</v>
+        <v>0.3191309674544746</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.3332721074273263</v>
       </c>
       <c r="E48" t="n">
-        <v>2.180925891057611</v>
+        <v>2.178624855266339</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.376738250905434</v>
+        <v>-1.376923677012979</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2910425622815731</v>
+        <v>0.2896058749601189</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.2821026140990924</v>
       </c>
       <c r="E49" t="n">
-        <v>1.902233371513049</v>
+        <v>1.89974398951805</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.290478609694548</v>
+        <v>-1.291858355140456</v>
       </c>
       <c r="G49" t="n">
-        <v>0.2369580008500421</v>
+        <v>0.235937427234497</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.2362844259794296</v>
       </c>
       <c r="E50" t="n">
-        <v>1.768117734026449</v>
+        <v>1.764708521734177</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.169515085410853</v>
+        <v>-1.170759046384307</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1981090412471435</v>
+        <v>0.1971468695552347</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.1953378484183816</v>
       </c>
       <c r="E51" t="n">
-        <v>1.495539895886613</v>
+        <v>1.492428533404887</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.093278674344055</v>
+        <v>-1.095601610856691</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1673239272503336</v>
+        <v>0.1657894167067885</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.1590661414208756</v>
       </c>
       <c r="E52" t="n">
-        <v>1.33720644071611</v>
+        <v>1.33516529348502</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.011032705335077</v>
+        <v>-1.012919087468531</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1447924651114305</v>
+        <v>0.1432783952411582</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.1261927226303631</v>
       </c>
       <c r="E53" t="n">
-        <v>1.095031183973266</v>
+        <v>1.093734661268539</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.9384274338703695</v>
+        <v>-0.940626266295278</v>
       </c>
       <c r="G53" t="n">
-        <v>0.101112206375715</v>
+        <v>0.1000624317983516</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.09618602464728304</v>
       </c>
       <c r="E54" t="n">
-        <v>0.9511303041813959</v>
+        <v>0.9490555758442146</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.9454035436487312</v>
+        <v>-0.9484258431969123</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05014922776254686</v>
+        <v>0.04897680914554717</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.06717655069049761</v>
       </c>
       <c r="E55" t="n">
-        <v>0.7904023701418026</v>
+        <v>0.7886751332502576</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.8993375663324709</v>
+        <v>-0.9010925441377432</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02349604986300856</v>
+        <v>0.02219514701400891</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.0389996952775042</v>
       </c>
       <c r="E56" t="n">
-        <v>0.6459014105845687</v>
+        <v>0.6440515296533874</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.8502303088428478</v>
+        <v>-0.8526262477600289</v>
       </c>
       <c r="G56" t="n">
-        <v>0.01655498123882861</v>
+        <v>0.01554316791182888</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.01125415385697206</v>
       </c>
       <c r="E57" t="n">
-        <v>0.5030634458028798</v>
+        <v>0.5006383059238805</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.8190290811401288</v>
+        <v>-0.8209052429369466</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.01123411407543666</v>
+        <v>-0.01201815990025463</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.01568637875600784</v>
       </c>
       <c r="E58" t="n">
-        <v>0.3937759261021819</v>
+        <v>0.3910996579515462</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.8128413973308578</v>
+        <v>-0.8151555735549481</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.0268507884557961</v>
+        <v>-0.02769761634852315</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.04186238142294544</v>
       </c>
       <c r="E59" t="n">
-        <v>0.2476703736930393</v>
+        <v>0.2447969990501309</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.7481860877211479</v>
+        <v>-0.7504082809155109</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.09221422138959673</v>
+        <v>-0.09176160648141504</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.06691888924267014</v>
       </c>
       <c r="E60" t="n">
-        <v>0.1878171622543281</v>
+        <v>0.1849861290060561</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.7310918446727889</v>
+        <v>-0.734175466240788</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.07960086593223649</v>
+        <v>-0.07962568674978193</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.09112260661728254</v>
       </c>
       <c r="E61" t="n">
-        <v>0.02980199756764323</v>
+        <v>0.02737101749628025</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.7031085629624327</v>
+        <v>-0.7064652135234318</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1359835430588577</v>
+        <v>-0.1360492452229486</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.1147306657508742</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.05730447153596974</v>
+        <v>-0.05994131838815085</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.7213066023675188</v>
+        <v>-0.725172809712245</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.168329448464849</v>
+        <v>-0.1687441021226671</v>
       </c>
     </row>
     <row r="63">
@@ -1882,10 +1882,10 @@
         <v>-0.1384228996991309</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.150722728536581</v>
+        <v>-0.1529901832217622</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.7554074855787822</v>
+        <v>-0.7588415186885995</v>
       </c>
       <c r="G63" t="n">
         <v>-0.1836365926499358</v>
@@ -1905,13 +1905,13 @@
         <v>-0.1624730593711903</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.2641757654406415</v>
+        <v>-0.2662723944991864</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.7578632864676907</v>
+        <v>-0.7618521378520533</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2166336795044724</v>
+        <v>-0.217311141818654</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.1871878318072291</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.4170398804626004</v>
+        <v>-0.419717608661327</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.7391702907597867</v>
+        <v>-0.7440950329704217</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.237269999221376</v>
+        <v>-0.2375401081181941</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.2127163995666685</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.4425031191680481</v>
+        <v>-0.4459094113641381</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.7698794822558693</v>
+        <v>-0.7748334254283226</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.2534385717800989</v>
+        <v>-0.2537919034180988</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.2387846636275785</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.5286444964835705</v>
+        <v>-0.5315908735310242</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.8101957901901312</v>
+        <v>-0.8150840311984935</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.2687179750514584</v>
+        <v>-0.2687500961094584</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.2653075478900551</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.5625935346933795</v>
+        <v>-0.5665269042502875</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.7602782060100537</v>
+        <v>-0.7660891974118703</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3192823605358085</v>
+        <v>-0.3194999077013539</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.2913696847914462</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.6436393441716305</v>
+        <v>-0.647068997137175</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.8053440503840416</v>
+        <v>-0.8114601918368581</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.3183581500942633</v>
+        <v>-0.3186224187987178</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.3159893207179912</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.753109369883692</v>
+        <v>-0.7554877882237823</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.803482489068133</v>
+        <v>-0.8093854634996769</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.3575458408542528</v>
+        <v>-0.3576422040282528</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.3385715720897035</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.7814751841938662</v>
+        <v>-0.7842697162398654</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.9313637212065532</v>
+        <v>-0.9366213543819154</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.4019780243567863</v>
+        <v>-0.401789678153059</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.3586008164632092</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.8245831040779456</v>
+        <v>-0.8269250212157631</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.9982368438663535</v>
+        <v>-1.003157205932716</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4198198120276906</v>
+        <v>-0.4201132816939632</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.3754387334495004</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.8747795574433866</v>
+        <v>-0.8769740097240224</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.031901172698435</v>
+        <v>-1.036590847166434</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.452914722104318</v>
+        <v>-0.4530738673462271</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.389318371590235</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.8166579630404931</v>
+        <v>-0.8196160204726741</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.057059261352883</v>
+        <v>-1.061950422457427</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.4671750118082233</v>
+        <v>-0.4677035492171323</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.3998176748823113</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.8000207150445885</v>
+        <v>-0.8027291042532241</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.121819694425138</v>
+        <v>-1.125658160856137</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.4556683728037719</v>
+        <v>-0.4563954767530444</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.4068493394849065</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.7173644725220653</v>
+        <v>-0.7189968062877011</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.163825278000582</v>
+        <v>-1.167073885002853</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.4586702316786802</v>
+        <v>-0.4589972824510437</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.410179522190555</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.566440761412924</v>
+        <v>-0.569463060961105</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.149032070743495</v>
+        <v>-1.151752140336858</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.4390676260101399</v>
+        <v>-0.4386953137469582</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.40891252878262</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.4291743401461426</v>
+        <v>-0.431615540554142</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.173019200829034</v>
+        <v>-1.175277895225669</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.4512926086753185</v>
+        <v>-0.4513699912241367</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.4015302897554754</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.3260876446875339</v>
+        <v>-0.3293085107760785</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.254197874683557</v>
+        <v>-1.256139738644466</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.3948690502021519</v>
+        <v>-0.3957260984315152</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.386479223889485</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.1377983828358572</v>
+        <v>-0.1403885081491293</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.310783498494815</v>
+        <v>-1.312357430336815</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.373020890569794</v>
+        <v>-0.3732209171582486</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.3621129271116324</v>
       </c>
       <c r="E81" t="n">
-        <v>0.02041972853546393</v>
+        <v>0.01708351864773755</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.30177792187009</v>
+        <v>-1.302751773946726</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.3227660352807166</v>
+        <v>-0.3238231100985345</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.3279784632227405</v>
       </c>
       <c r="E82" t="n">
-        <v>0.2317397889731345</v>
+        <v>0.2287627509157716</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.28935729276073</v>
+        <v>-1.290855302102002</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2871846633052716</v>
+        <v>-0.2884636654329077</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.2840260389824424</v>
       </c>
       <c r="E83" t="n">
-        <v>0.4141114759123582</v>
+        <v>0.4114206072808135</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.231159775857109</v>
+        <v>-1.232025584375018</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2696305051082764</v>
+        <v>-0.2702787664606398</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.2312205748427006</v>
       </c>
       <c r="E84" t="n">
-        <v>0.6209097674124845</v>
+        <v>0.6193270752819395</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.153857529683948</v>
+        <v>-1.154545212334766</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.2447293849178285</v>
+        <v>-0.2462974765674645</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.1716089432641685</v>
       </c>
       <c r="E85" t="n">
-        <v>0.736136762746999</v>
+        <v>0.7342211796517268</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.066441530385063</v>
+        <v>-1.066707259137608</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.2093509596270198</v>
+        <v>-0.210691283774474</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.1084029098422256</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9612133962972114</v>
+        <v>0.9597489680620299</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.9998750178243531</v>
+        <v>-1.000602121773626</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.1799149300662095</v>
+        <v>-0.1813165762334819</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.04641778251309515</v>
       </c>
       <c r="E87" t="n">
-        <v>1.104956590895264</v>
+        <v>1.103711169873719</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.9433726167542773</v>
+        <v>-0.9443581492156407</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.1503445760810357</v>
+        <v>-0.1515753966216717</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.007298832992722828</v>
       </c>
       <c r="E88" t="n">
-        <v>1.2080389062096</v>
+        <v>1.206907368939145</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.8886164332009283</v>
+        <v>-0.888365304929292</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.1140361001563181</v>
+        <v>-0.115414385554136</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.04687215244049213</v>
       </c>
       <c r="E89" t="n">
-        <v>1.330228870889658</v>
+        <v>1.329430224583931</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.7910092982275</v>
+        <v>-0.7906121651467728</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.1123336840823186</v>
+        <v>-0.1134272601024092</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.06701722463692304</v>
       </c>
       <c r="E90" t="n">
-        <v>1.369434082226738</v>
+        <v>1.368358026783738</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.6912398320314359</v>
+        <v>-0.6906382922179815</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.07794955154141875</v>
+        <v>-0.07930739626596384</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.06509094465683946</v>
       </c>
       <c r="E91" t="n">
-        <v>1.414244418184817</v>
+        <v>1.413610757313362</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.585038853994919</v>
+        <v>-0.5847483044248282</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.01760576394416222</v>
+        <v>-0.01884534477334371</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.04238294037057873</v>
       </c>
       <c r="E92" t="n">
-        <v>1.43839945380081</v>
+        <v>1.43754678571572</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.4562655324729535</v>
+        <v>-0.4561151475195899</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.02015646795897972</v>
+        <v>-0.0213960487881612</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.002834752279249904</v>
       </c>
       <c r="E93" t="n">
-        <v>1.410422012282818</v>
+        <v>1.409550363572545</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.3473707657087101</v>
+        <v>-0.3474058068628919</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.01364903361779965</v>
+        <v>-0.01453382276089032</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.04661614349314307</v>
       </c>
       <c r="E94" t="n">
-        <v>1.409548903524455</v>
+        <v>1.409510942274091</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.2084223690412019</v>
+        <v>-0.2079814345177475</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.01675601595525336</v>
+        <v>-0.01780871062879853</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.09829146339286968</v>
       </c>
       <c r="E95" t="n">
-        <v>1.336095344118929</v>
+        <v>1.336073443397565</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.09317055288914193</v>
+        <v>-0.09250623100777847</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.01931986040288904</v>
+        <v>-0.01966005160807076</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.1456801455290785</v>
       </c>
       <c r="E96" t="n">
-        <v>1.257260047450314</v>
+        <v>1.25796087053395</v>
       </c>
       <c r="F96" t="n">
-        <v>0.03374996760546035</v>
+        <v>0.03380690948100579</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.03372907501206698</v>
+        <v>-0.0343539755949759</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.1851634619998014</v>
       </c>
       <c r="E97" t="n">
-        <v>1.175332368925154</v>
+        <v>1.177106327355608</v>
       </c>
       <c r="F97" t="n">
-        <v>0.133430370867979</v>
+        <v>0.1330127971139791</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.05258559610615283</v>
+        <v>-0.05293016745560728</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.2183494295280639</v>
       </c>
       <c r="E98" t="n">
-        <v>1.07842313693918</v>
+        <v>1.079956187434634</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1944691413565081</v>
+        <v>0.1940150664002355</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.05776146658842417</v>
+        <v>-0.05824912265078767</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.2470060307953735</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9408150644191259</v>
+        <v>0.9430620784310344</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1955846180979623</v>
+        <v>0.1955378965590533</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.05293600764797091</v>
+        <v>-0.05361346996215256</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.2753215628547316</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8463470328411512</v>
+        <v>0.8493839328702414</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2119605174855943</v>
+        <v>0.2116831083483217</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.04594091724442734</v>
+        <v>-0.046538076913609</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.3024011869853363</v>
       </c>
       <c r="E101" t="n">
-        <v>0.6942494430669194</v>
+        <v>0.6984324808473727</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1986010774537797</v>
+        <v>0.1982711065852344</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.05028894045915345</v>
+        <v>-0.04991370809978991</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.3295578796287004</v>
       </c>
       <c r="E102" t="n">
-        <v>0.6334866216675721</v>
+        <v>0.6380843131058436</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2071803200359592</v>
+        <v>0.2067452257048684</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.08226107355387213</v>
+        <v>-0.08195154335859949</v>
       </c>
     </row>
   </sheetData>
